--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2053285.823646316</v>
+        <v>2157465.458097386</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.01505925776814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -710,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>129.4714269367835</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>193.5417083710102</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>34.04565350482978</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>347.4416819816013</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>15.83694765564203</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>62.00541138222371</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>34.80717552889064</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>345.0044601702987</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>64.77203581859817</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>90.37756462490218</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>120.4555718972839</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892429023</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>74.56049207329603</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>96.99837838564352</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>45.66054613217651</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2017,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2050,16 +2052,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.05158559392713</v>
+        <v>217.8829459347446</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>132.7328787290126</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272958</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>205.8964840581836</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,16 +2326,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722631</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>65.44930784064623</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2570,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,10 +2617,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376613</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>2.607010073143802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,10 +2851,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>93.40444476188276</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3190,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.594095449507134</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465767</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>148.8796904206629</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>53.76947475493767</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>75.75905456204164</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>176.7621441121407</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>27.02919805176216</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422912</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>137.9792024346579</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>211.1474991249037</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189674</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213863</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>944.7237329438971</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="C4" t="n">
-        <v>775.7875500159902</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.01298720966</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W4" t="n">
-        <v>1361.01298720966</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X4" t="n">
-        <v>1165.516312087427</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y4" t="n">
-        <v>944.7237329438971</v>
+        <v>839.2974485372046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2739.810011970445</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2739.810011970445</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.344253709365</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>2029.57251526313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064622</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4665,31 +4667,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>532.4548862703364</v>
+        <v>521.2725633630544</v>
       </c>
       <c r="C7" t="n">
-        <v>363.5187033424295</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300938</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4765,10 +4767,10 @@
         <v>970.0546934046018</v>
       </c>
       <c r="X7" t="n">
-        <v>934.8959302441062</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y7" t="n">
-        <v>714.1033511005761</v>
+        <v>521.2725633630544</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1938.906022842681</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3149.8888543296</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2818.825966986029</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906803</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y8" t="n">
-        <v>2325.505862906803</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>943.7005868594143</v>
+        <v>916.642289650329</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>916.642289650329</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>766.5256502379932</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>618.6125566556001</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>471.7226091576897</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>304.0197725324086</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.8025857502664</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1715.791796000279</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1715.791796000279</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1715.791796000279</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V10" t="n">
-        <v>1461.107307794392</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="W10" t="n">
-        <v>1171.690137757432</v>
+        <v>1326.280305378586</v>
       </c>
       <c r="X10" t="n">
-        <v>943.7005868594143</v>
+        <v>1098.290754480569</v>
       </c>
       <c r="Y10" t="n">
-        <v>943.7005868594143</v>
+        <v>1098.290754480569</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5054,37 +5056,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,16 +5129,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400799</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>344.917417812173</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>344.917417812173</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>344.917417812173</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>344.917417812173</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270529</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5218,31 +5220,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580269</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832671</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487576</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510517</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854715</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648828</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611867</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138497</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703196</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5279,22 +5281,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5370,10 +5372,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E16" t="n">
-        <v>363.7369613277355</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>363.7369613277355</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5479,7 +5481,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5507,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5534,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3200.825397924056</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>3031.889214996149</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>2881.772575583813</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>2733.85948200142</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>2586.96953450351</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>2419.77343521839</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.932614305899</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.33114932884</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.255922673038</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V19" t="n">
-        <v>3932.255922673038</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W19" t="n">
-        <v>3642.838752636078</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X19" t="n">
-        <v>3414.84920173806</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y19" t="n">
-        <v>3382.473862754296</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5735,52 +5737,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.3544215660705</v>
+        <v>3012.408157764283</v>
       </c>
       <c r="C22" t="n">
-        <v>612.4182386381636</v>
+        <v>2843.471974836376</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>2709.398359958586</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328833</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673031</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673031</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>3642.83875263607</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>3414.849201738053</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.0028863963103</v>
+        <v>3194.056622594523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6002,10 +6004,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2380.852671620012</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.997837274916</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>94.56320294380259</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3044.507496087139</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C28" t="n">
-        <v>2875.571313159232</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159232</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159232</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661322</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W28" t="n">
-        <v>3674.938090958926</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>3446.948540060909</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y28" t="n">
-        <v>3226.155960917379</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="29">
@@ -6443,67 +6445,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6697,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6716,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6737,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,22 +6785,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253809</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2046.67901981013</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1213.50213491148</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X34" t="n">
-        <v>985.5125840134626</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6974,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7026,16 +7028,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2303.393082295247</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2083.791617318188</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U40" t="n">
-        <v>1794.716390662386</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,46 +7405,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558404</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C43" t="n">
-        <v>2588.787486630497</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D43" t="n">
-        <v>2561.485266376192</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>2561.485266376192</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376192</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305899</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.33114932884</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673038</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467151</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430191</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532174</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388644</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="44">
@@ -7631,52 +7633,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7801,46 +7803,46 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.052681478291</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038296</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580256</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2307.590151828076</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U46" t="n">
-        <v>2018.514925172274</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W46" t="n">
         <v>1729.097755135313</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392193366</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>151.1491633157411</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>49.43558426092565</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>119.8635921600923</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.5330677581676</v>
+        <v>0.7017074173501499</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.88259428919974</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.68816929391119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.9259388694754307</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>283.9159882634472</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>72.11969353038609</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>147.0213775687052</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>232.4149996343065</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>105.267231439603</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>75.37549921168727</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>121.5862749664502</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>39.70888054695297</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>79.42624789263033</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>75.03697526434047</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837084.3681224537</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224537</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224533</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837084.3681224532</v>
+        <v>837084.3681224537</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224537</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224537</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224537</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="O2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813243</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678134</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.0882867813</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678127</v>
+        <v>10557.0882867811</v>
       </c>
       <c r="I4" t="n">
+        <v>10557.08828678112</v>
+      </c>
+      <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
-      <c r="J4" t="n">
-        <v>10557.08828678107</v>
-      </c>
       <c r="K4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867811</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-931167.5261955127</v>
+        <v>-931167.5261955129</v>
       </c>
       <c r="C6" t="n">
+        <v>397577.2195320796</v>
+      </c>
+      <c r="D6" t="n">
         <v>397577.2195320798</v>
       </c>
-      <c r="D6" t="n">
-        <v>397577.2195320796</v>
-      </c>
       <c r="E6" t="n">
-        <v>148089.2048572111</v>
+        <v>148089.2048572106</v>
       </c>
       <c r="F6" t="n">
+        <v>473501.666664566</v>
+      </c>
+      <c r="G6" t="n">
         <v>473501.6666645659</v>
-      </c>
-      <c r="G6" t="n">
-        <v>473501.6666645658</v>
       </c>
       <c r="H6" t="n">
         <v>473501.6666645661</v>
       </c>
       <c r="I6" t="n">
-        <v>473501.6666645661</v>
+        <v>473501.666664566</v>
       </c>
       <c r="J6" t="n">
         <v>255970.4642672885</v>
@@ -26549,19 +26551,19 @@
         <v>473501.666664566</v>
       </c>
       <c r="L6" t="n">
+        <v>473501.6666645659</v>
+      </c>
+      <c r="M6" t="n">
+        <v>388446.6387290541</v>
+      </c>
+      <c r="N6" t="n">
+        <v>473501.666664566</v>
+      </c>
+      <c r="O6" t="n">
+        <v>473501.666664566</v>
+      </c>
+      <c r="P6" t="n">
         <v>473501.6666645661</v>
-      </c>
-      <c r="M6" t="n">
-        <v>388446.6387290542</v>
-      </c>
-      <c r="N6" t="n">
-        <v>473501.6666645661</v>
-      </c>
-      <c r="O6" t="n">
-        <v>473501.6666645664</v>
-      </c>
-      <c r="P6" t="n">
-        <v>473501.666664566</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,10 +26810,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>312.7187824057124</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>256.7665117192701</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>32.16794701802695</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>184.538999847265</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>35.2921596818793</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>311.9153108144929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>105.2414097164041</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>190.9024798601465</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>20.26843160070888</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>186.2231361403038</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>5.974855784935912</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>69.31345343415795</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29010,7 +29012,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-6.19002207767694e-12</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29044,16 +29046,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-1.285915741704982e-12</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29089,22 +29091,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29518,7 +29520,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29572,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29913,7 +29915,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-7.517303009959066e-12</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -31847,7 +31849,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31859,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32090,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,25 +32317,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32473,13 +32475,13 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>100.2764607028593</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,34 +33031,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P33" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.586862646002</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614911</v>
       </c>
       <c r="N42" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35495,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35507,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35586,7 +35588,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572999074</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35738,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>0.7540807028593007</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P33" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243153</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394727</v>
       </c>
       <c r="N42" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326294864</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2157465.458097386</v>
+        <v>2153452.848083395</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9720414.796983048</v>
+        <v>9720414.796983046</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6988068886399</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>129.4714269367835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>255.2654507318363</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>34.04565350482978</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>347.4416819816013</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>162.6844916538642</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>110.4892783404652</v>
       </c>
       <c r="C7" t="n">
-        <v>62.00541138222371</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1110,16 +1110,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>131.1757920097858</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>64.77203581859817</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>90.37756462490218</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>106.9094576655908</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>74.56049207329603</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>96.99837838564352</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>223.8290352905946</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.8829459347446</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>132.7328787290126</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272958</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2326,16 +2326,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722631</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.44930784064623</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>31.26260713376613</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>18.7084378797731</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>1.594095449507134</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465767</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>53.76947475493767</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>176.7621441121407</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>246.4755938422912</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>211.1474991249037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4315,34 +4315,34 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866151</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X2" t="n">
-        <v>2862.546497866151</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2630.721789066531</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>657.6489837069648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C4" t="n">
-        <v>657.6489837069648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D4" t="n">
-        <v>507.5323442946291</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1387.934317044728</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.09371846696</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.676548429999</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X4" t="n">
-        <v>873.6869975319821</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y4" t="n">
-        <v>839.2974485372046</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1396.478739875896</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.57251526313</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2029.57251526313</v>
+        <v>2141.344278546768</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>521.2725633630544</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>458.6408346941415</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W7" t="n">
-        <v>970.0546934046018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X7" t="n">
-        <v>742.0651425065845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y7" t="n">
-        <v>521.2725633630544</v>
+        <v>1203.219012098843</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1006.819119944519</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>621.030867346275</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>210.0449625566675</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>199.012916442068</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3149.8888543296</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2818.825966986029</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2466.057311715915</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>2466.057311715915</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.917979740103</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="9">
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>916.642289650329</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>916.642289650329</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>766.5256502379932</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>618.6125566556001</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>471.7226091576897</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>304.0197725324086</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>157.8025857502664</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.697475415547</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1326.280305378586</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1098.290754480569</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1098.290754480569</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797186</v>
@@ -5123,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>283.8927175774227</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5372,10 +5372,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556945</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D16" t="n">
-        <v>415.5933575433587</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,31 +5773,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3012.408157764283</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2843.471974836376</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2709.398359958586</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328833</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673031</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3932.255922673031</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3642.83875263607</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3414.849201738053</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3194.056622594523</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5983,58 +5983,58 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2380.852671620012</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.997837274916</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>94.56320294380259</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>244.2098454714573</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2098454714573</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098242</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819173</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695815</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871884</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783594</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640064</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6445,34 +6445,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998291</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,10 +6697,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6718,10 +6718,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.3345878491255</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253809</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>2106.003314093041</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1851.318825887154</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>2197.062545487568</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7405,58 +7405,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273906</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>58.61468062667807</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>151.1491633157411</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>49.43558426092565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>62.35543909864955</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.7017074173501499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>15.88259428919974</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.9259388694754307</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>45.37941682720972</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="32">
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>147.0213775687052</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>232.4149996343065</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>75.37549921168727</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>39.70888054695297</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>75.03697526434047</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837084.3681224537</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837084.3681224533</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>837084.3681224536</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837084.3681224537</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837084.3681224537</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837084.3681224537</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
   </sheetData>
@@ -26316,25 +26316,25 @@
         <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752543</v>
@@ -26343,19 +26343,19 @@
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752541</v>
       </c>
-      <c r="M2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="N2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813258</v>
       </c>
       <c r="C4" t="n">
+        <v>89744.12305813252</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813251</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89744.12305813254</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26432,22 +26432,22 @@
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
+        <v>10557.08828678127</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10557.08828678126</v>
+      </c>
+      <c r="I4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.0882867811</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10557.08828678112</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.0882867811</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26456,7 +26456,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-931167.5261955129</v>
+        <v>-931167.5261955125</v>
       </c>
       <c r="C6" t="n">
-        <v>397577.2195320796</v>
+        <v>397577.2195320792</v>
       </c>
       <c r="D6" t="n">
-        <v>397577.2195320798</v>
+        <v>397577.2195320799</v>
       </c>
       <c r="E6" t="n">
-        <v>148089.2048572106</v>
+        <v>147741.8256028542</v>
       </c>
       <c r="F6" t="n">
-        <v>473501.666664566</v>
+        <v>473154.2874102093</v>
       </c>
       <c r="G6" t="n">
-        <v>473501.6666645659</v>
+        <v>473154.2874102095</v>
       </c>
       <c r="H6" t="n">
-        <v>473501.6666645661</v>
+        <v>473154.2874102092</v>
       </c>
       <c r="I6" t="n">
-        <v>473501.666664566</v>
+        <v>473154.2874102091</v>
       </c>
       <c r="J6" t="n">
-        <v>255970.4642672885</v>
+        <v>255623.0850129316</v>
       </c>
       <c r="K6" t="n">
-        <v>473501.666664566</v>
+        <v>473154.287410209</v>
       </c>
       <c r="L6" t="n">
-        <v>473501.6666645659</v>
+        <v>473154.2874102091</v>
       </c>
       <c r="M6" t="n">
-        <v>388446.6387290541</v>
+        <v>388099.259474697</v>
       </c>
       <c r="N6" t="n">
-        <v>473501.666664566</v>
+        <v>473154.2874102091</v>
       </c>
       <c r="O6" t="n">
-        <v>473501.666664566</v>
+        <v>473154.2874102092</v>
       </c>
       <c r="P6" t="n">
-        <v>473501.6666645661</v>
+        <v>473154.2874102092</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,10 +26810,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>100.0350347748407</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>256.7665117192701</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>30.94638747377658</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.538999847265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.2921596818793</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>219.2458784183976</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>69.34270184147211</v>
       </c>
       <c r="C7" t="n">
-        <v>105.2414097164041</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>163.4319723775347</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,16 +27909,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>186.2231361403038</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>5.974855784935912</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29012,7 +29012,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-6.19002207767694e-12</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -29046,16 +29046,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.285915741704982e-12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29091,22 +29091,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29520,7 +29520,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29915,7 +29915,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-7.517303009959066e-12</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31843,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31858,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32022,7 +32022,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>164.9290651940687</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,25 +32317,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32475,7 +32475,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32554,25 +32554,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>100.2764607028593</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,16 +33523,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34368,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35506,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7540807028593007</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2153452.848083395</v>
+        <v>2155213.378386179</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9720414.796983046</v>
+        <v>9720414.796983048</v>
       </c>
     </row>
     <row r="11">
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.46917553865531</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>255.2654507318363</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>166.9920602376557</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>162.6844916538642</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.4892783404652</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>37.59617708813224</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>131.1757920097858</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>122.7433563196732</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991711</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>40.04537273892246</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>106.9094576655908</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>99.43007309479017</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>223.8290352905946</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>105.9742079424025</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>172.0260335000785</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>90.85912858529821</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>118.6708469029954</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>82.85993176807962</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4330,25 +4330,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4020639300938</v>
+        <v>471.5602567208152</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>471.5602567208152</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>471.5602567208152</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>471.5602567208152</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>324.6703092229048</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
@@ -4521,19 +4521,19 @@
         <v>1645.778206672846</v>
       </c>
       <c r="U4" t="n">
-        <v>1387.934317044728</v>
+        <v>1356.675339798489</v>
       </c>
       <c r="V4" t="n">
-        <v>1133.249828838841</v>
+        <v>1101.990851592602</v>
       </c>
       <c r="W4" t="n">
-        <v>843.8326588018809</v>
+        <v>1101.990851592602</v>
       </c>
       <c r="X4" t="n">
-        <v>615.8431079038636</v>
+        <v>874.0013006945851</v>
       </c>
       <c r="Y4" t="n">
-        <v>395.0505287603335</v>
+        <v>653.208721551055</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482647</v>
+        <v>2144.883770458458</v>
       </c>
       <c r="C5" t="n">
-        <v>1754.744438482647</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1396.478739875896</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4579,10 +4579,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296685</v>
@@ -4612,7 +4612,7 @@
         <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546768</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>718.3439163053883</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>549.4077333774815</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>399.2910939651457</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>251.3780003827526</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>104.4880528848422</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X7" t="n">
-        <v>1424.011591242373</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y7" t="n">
-        <v>1203.219012098843</v>
+        <v>899.9923811356281</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491681</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1365.08481855127</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1006.819119944519</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>621.030867346275</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>210.0449625566675</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>199.012916442068</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792695</v>
+        <v>3091.331964934574</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531615</v>
+        <v>2717.866206673495</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555803</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1886.844676635035</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1886.844676635035</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1886.844676635035</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1597.741809760679</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1343.057321554792</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1053.640151517831</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>825.6506006198139</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>604.8580214762837</v>
       </c>
     </row>
     <row r="11">
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876688</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7826650753331</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>430.7826650753331</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>283.8927175774227</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,7 +5305,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>576.8388927589092</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9027098310023</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1207.269487630696</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>979.2799367326791</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>758.4873575891489</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5667,10 +5667,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,40 +5761,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5904,10 +5904,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6466,16 +6466,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>642.8692823226941</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>473.9330993947872</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>323.8164599824514</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>824.5177471529338</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6782,16 +6782,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="35">
@@ -6919,22 +6919,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,19 +6952,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7165,28 +7165,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7402,61 +7402,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>58.61468062667807</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>186.754401294454</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>112.6104454096923</v>
       </c>
     </row>
     <row r="17">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>45.37941682720972</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>62.35543909864924</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.75554125013274</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>65.54986409393068</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224537</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837084.3681224537</v>
+        <v>837084.3681224535</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837084.3681224535</v>
+        <v>837084.3681224536</v>
       </c>
     </row>
     <row r="15">
@@ -26322,40 +26322,40 @@
         <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752548</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="K2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752541</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813258</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26432,13 +26432,13 @@
         <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="I4" t="n">
         <v>10557.08828678127</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10557.08828678126</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26456,7 +26456,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26527,43 +26527,43 @@
         <v>397577.2195320792</v>
       </c>
       <c r="D6" t="n">
-        <v>397577.2195320799</v>
+        <v>397577.21953208</v>
       </c>
       <c r="E6" t="n">
-        <v>147741.8256028542</v>
+        <v>148054.4669317744</v>
       </c>
       <c r="F6" t="n">
-        <v>473154.2874102093</v>
+        <v>473466.9287391305</v>
       </c>
       <c r="G6" t="n">
-        <v>473154.2874102095</v>
+        <v>473466.9287391307</v>
       </c>
       <c r="H6" t="n">
-        <v>473154.2874102092</v>
+        <v>473466.9287391307</v>
       </c>
       <c r="I6" t="n">
-        <v>473154.2874102091</v>
+        <v>473466.9287391304</v>
       </c>
       <c r="J6" t="n">
-        <v>255623.0850129316</v>
+        <v>255935.726341853</v>
       </c>
       <c r="K6" t="n">
-        <v>473154.287410209</v>
+        <v>473466.9287391304</v>
       </c>
       <c r="L6" t="n">
-        <v>473154.2874102091</v>
+        <v>473466.9287391303</v>
       </c>
       <c r="M6" t="n">
-        <v>388099.259474697</v>
+        <v>388411.9008036185</v>
       </c>
       <c r="N6" t="n">
-        <v>473154.2874102091</v>
+        <v>473466.9287391304</v>
       </c>
       <c r="O6" t="n">
-        <v>473154.2874102092</v>
+        <v>473466.9287391301</v>
       </c>
       <c r="P6" t="n">
-        <v>473154.2874102092</v>
+        <v>473466.9287391304</v>
       </c>
     </row>
   </sheetData>
@@ -26795,10 +26795,10 @@
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>151.5566327203729</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>30.94638747377658</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>198.2808315333518</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>219.2458784183976</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.34270184147211</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>128.429631170896</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>163.4319723775347</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>226.4976123977398</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.35543628911111</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>48.88677993112488</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32022,7 +32022,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32943,13 +32943,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33678,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
